--- a/data/pca/factorExposure/factorExposure_2018-02-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-02-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.006954171180855572</v>
+        <v>-0.008128529389478712</v>
       </c>
       <c r="C2">
-        <v>-0.007253816849036969</v>
+        <v>0.02318120028572887</v>
       </c>
       <c r="D2">
-        <v>0.02513449465285746</v>
+        <v>-0.02483981467665292</v>
       </c>
       <c r="E2">
-        <v>-0.03341492365070869</v>
+        <v>-0.01330491953734334</v>
       </c>
       <c r="F2">
-        <v>0.05953871940249574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.001112305226756374</v>
+      </c>
+      <c r="G2">
+        <v>0.002311704544150329</v>
+      </c>
+      <c r="H2">
+        <v>-0.02862824833193788</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.07648870571164872</v>
+        <v>-0.05004801960051795</v>
       </c>
       <c r="C3">
-        <v>-0.005395915691216094</v>
+        <v>0.07348011134401869</v>
       </c>
       <c r="D3">
-        <v>-0.0001901443129619555</v>
+        <v>-0.007834367294446511</v>
       </c>
       <c r="E3">
-        <v>-0.1365064807559564</v>
+        <v>-0.05980407612187684</v>
       </c>
       <c r="F3">
-        <v>0.2629396041787012</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.05006929572156273</v>
+      </c>
+      <c r="G3">
+        <v>0.03773545189123773</v>
+      </c>
+      <c r="H3">
+        <v>-0.1137331764606138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04041811434286006</v>
+        <v>-0.03342494779272345</v>
       </c>
       <c r="C4">
-        <v>0.009349230328920511</v>
+        <v>0.06330846915529757</v>
       </c>
       <c r="D4">
-        <v>0.02863696040187691</v>
+        <v>-0.01866530348832153</v>
       </c>
       <c r="E4">
-        <v>0.01049881915846633</v>
+        <v>0.007640033309375074</v>
       </c>
       <c r="F4">
-        <v>0.05905763300790189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.02657409621641182</v>
+      </c>
+      <c r="G4">
+        <v>0.04308989098682622</v>
+      </c>
+      <c r="H4">
+        <v>-0.03266526828149013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04421978508219826</v>
+        <v>-0.01719496526678819</v>
       </c>
       <c r="C6">
-        <v>-0.00529984428224383</v>
+        <v>0.06164688382686755</v>
       </c>
       <c r="D6">
-        <v>0.03476506644601868</v>
+        <v>-0.01356953314770556</v>
       </c>
       <c r="E6">
-        <v>0.01980923917095413</v>
+        <v>0.01193935796209395</v>
       </c>
       <c r="F6">
-        <v>0.04292217672969489</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.005417192154632139</v>
+      </c>
+      <c r="G6">
+        <v>0.02970511637964615</v>
+      </c>
+      <c r="H6">
+        <v>-0.03663195110798502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03878841244664646</v>
+        <v>-0.003158784494538287</v>
       </c>
       <c r="C7">
-        <v>0.06814750181458394</v>
+        <v>0.03640458896056416</v>
       </c>
       <c r="D7">
-        <v>0.007411282007875486</v>
+        <v>-0.01126332901967464</v>
       </c>
       <c r="E7">
-        <v>0.006394282541906752</v>
+        <v>0.02302832606434787</v>
       </c>
       <c r="F7">
-        <v>0.02257485469686127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.07401590733576403</v>
+      </c>
+      <c r="G7">
+        <v>0.005395528913002115</v>
+      </c>
+      <c r="H7">
+        <v>-0.01826080356031532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.00260705816937838</v>
+        <v>0.006524391483484645</v>
       </c>
       <c r="C8">
-        <v>0.00866972171870401</v>
+        <v>0.004012672068964274</v>
       </c>
       <c r="D8">
-        <v>0.0321697712181735</v>
+        <v>-0.002152646384368569</v>
       </c>
       <c r="E8">
-        <v>0.002677062384684528</v>
+        <v>-0.001659975600044892</v>
       </c>
       <c r="F8">
-        <v>0.05599453105245875</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.01796028720422158</v>
+      </c>
+      <c r="G8">
+        <v>0.01418418675996193</v>
+      </c>
+      <c r="H8">
+        <v>-0.01743592731952693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03233421865724058</v>
+        <v>-0.01477000515152683</v>
       </c>
       <c r="C9">
-        <v>0.006986659348975427</v>
+        <v>0.046536783848837</v>
       </c>
       <c r="D9">
-        <v>0.031146668490876</v>
+        <v>-0.0134783358827523</v>
       </c>
       <c r="E9">
-        <v>-0.01766290604052642</v>
+        <v>0.004838679985269153</v>
       </c>
       <c r="F9">
-        <v>0.06245535691039959</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.02132711265919274</v>
+      </c>
+      <c r="G9">
+        <v>0.01361195692257549</v>
+      </c>
+      <c r="H9">
+        <v>-0.03659453339188177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04765112735428437</v>
+        <v>-0.1289026086745723</v>
       </c>
       <c r="C10">
-        <v>-0.005165204727861265</v>
+        <v>-0.1513321839240055</v>
       </c>
       <c r="D10">
-        <v>-0.1556522922563963</v>
+        <v>0.02106804764559046</v>
       </c>
       <c r="E10">
-        <v>-0.07924701762218365</v>
+        <v>-0.0328795499740536</v>
       </c>
       <c r="F10">
-        <v>0.008308582685640562</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.03755344472572997</v>
+      </c>
+      <c r="G10">
+        <v>-0.02918048792474824</v>
+      </c>
+      <c r="H10">
+        <v>0.003798776831698524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03156935075626917</v>
+        <v>-0.01292115313231167</v>
       </c>
       <c r="C11">
-        <v>-0.007819062946933802</v>
+        <v>0.04792940628606974</v>
       </c>
       <c r="D11">
-        <v>0.03943221032335155</v>
+        <v>0.0004401488479420841</v>
       </c>
       <c r="E11">
-        <v>0.01929974123949238</v>
+        <v>0.01243924927119179</v>
       </c>
       <c r="F11">
-        <v>0.02584741803024793</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.001294262989516799</v>
+      </c>
+      <c r="G11">
+        <v>0.01220487926264913</v>
+      </c>
+      <c r="H11">
+        <v>-0.0404842625765236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04022559863930972</v>
+        <v>-0.01650401955552748</v>
       </c>
       <c r="C12">
-        <v>-0.002716131861979567</v>
+        <v>0.04518747192389777</v>
       </c>
       <c r="D12">
-        <v>0.03451609145632038</v>
+        <v>-0.003683136003433182</v>
       </c>
       <c r="E12">
-        <v>0.03179666118735434</v>
+        <v>0.01829384267817454</v>
       </c>
       <c r="F12">
-        <v>0.008271015894144067</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01313237451224935</v>
+      </c>
+      <c r="G12">
+        <v>0.006774977057423013</v>
+      </c>
+      <c r="H12">
+        <v>-0.01827299717508047</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01603605887613658</v>
+        <v>-0.01136758882815194</v>
       </c>
       <c r="C13">
-        <v>-0.0119351692275755</v>
+        <v>0.02285154087963787</v>
       </c>
       <c r="D13">
-        <v>0.004370162737580893</v>
+        <v>-0.02123417565057886</v>
       </c>
       <c r="E13">
-        <v>-0.01694622348179038</v>
+        <v>-0.0130162273904933</v>
       </c>
       <c r="F13">
-        <v>0.05944888744124673</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.004970230313133617</v>
+      </c>
+      <c r="G13">
+        <v>0.02761096875802038</v>
+      </c>
+      <c r="H13">
+        <v>-0.05076239981138642</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02119269835337998</v>
+        <v>-0.002312900900260166</v>
       </c>
       <c r="C14">
-        <v>0.01438477342845608</v>
+        <v>0.02023753952827196</v>
       </c>
       <c r="D14">
-        <v>0.009727767237119817</v>
+        <v>-0.007195547446628143</v>
       </c>
       <c r="E14">
-        <v>0.0009734498460674839</v>
+        <v>0.009450902950726025</v>
       </c>
       <c r="F14">
-        <v>0.04228848889620081</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03046047314683306</v>
+      </c>
+      <c r="G14">
+        <v>0.009830779179827614</v>
+      </c>
+      <c r="H14">
+        <v>-0.01091693821584771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02956048053111352</v>
+        <v>-0.01301510022415063</v>
       </c>
       <c r="C16">
-        <v>-0.00318619307611952</v>
+        <v>0.04160286708614358</v>
       </c>
       <c r="D16">
-        <v>0.04036860975270627</v>
+        <v>0.0005521702268700403</v>
       </c>
       <c r="E16">
-        <v>0.01983939059140198</v>
+        <v>0.01047523978851542</v>
       </c>
       <c r="F16">
-        <v>0.03126400242540508</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.008202589044962297</v>
+      </c>
+      <c r="G16">
+        <v>0.01172645734982363</v>
+      </c>
+      <c r="H16">
+        <v>-0.0278826065295684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03467621361823621</v>
+        <v>-0.0157987907560422</v>
       </c>
       <c r="C19">
-        <v>-0.004588713143907856</v>
+        <v>0.04394139474381752</v>
       </c>
       <c r="D19">
-        <v>0.03270938535996278</v>
+        <v>-0.01140392802674433</v>
       </c>
       <c r="E19">
-        <v>0.01235446084979445</v>
+        <v>-0.01233994542022407</v>
       </c>
       <c r="F19">
-        <v>0.08848030880724157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.02315683931742886</v>
+      </c>
+      <c r="G19">
+        <v>0.03907774454427485</v>
+      </c>
+      <c r="H19">
+        <v>-0.04807192873509214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003618003380038806</v>
+        <v>0.0009922343137658948</v>
       </c>
       <c r="C20">
-        <v>0.01047444839367845</v>
+        <v>0.01943918531486533</v>
       </c>
       <c r="D20">
-        <v>0.001485454732507912</v>
+        <v>-0.01099880545449104</v>
       </c>
       <c r="E20">
-        <v>-0.004236773662732594</v>
+        <v>-0.009257681707513583</v>
       </c>
       <c r="F20">
-        <v>0.03938459210829378</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01895771552851193</v>
+      </c>
+      <c r="G20">
+        <v>0.01993859137806178</v>
+      </c>
+      <c r="H20">
+        <v>-0.02060107750111501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03832366648809939</v>
+        <v>-0.003289789413666376</v>
       </c>
       <c r="C21">
-        <v>0.01862446395602564</v>
+        <v>0.01988235285438837</v>
       </c>
       <c r="D21">
-        <v>0.01933528940379571</v>
+        <v>-0.01392218059502623</v>
       </c>
       <c r="E21">
-        <v>-0.0006713302985194648</v>
+        <v>-0.01077289691351185</v>
       </c>
       <c r="F21">
-        <v>0.03767347879006537</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.03968544579574046</v>
+      </c>
+      <c r="G21">
+        <v>0.007788918966490094</v>
+      </c>
+      <c r="H21">
+        <v>-0.03217066924219518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02566220931534269</v>
+        <v>-0.007154918251785622</v>
       </c>
       <c r="C24">
-        <v>-0.003795965288845665</v>
+        <v>0.04013299831172884</v>
       </c>
       <c r="D24">
-        <v>0.02828381164558052</v>
+        <v>-0.00456688499380651</v>
       </c>
       <c r="E24">
-        <v>0.01640199492719184</v>
+        <v>0.01530054902449433</v>
       </c>
       <c r="F24">
-        <v>0.02479851113287579</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.004723312081237884</v>
+      </c>
+      <c r="G24">
+        <v>0.008764532273807534</v>
+      </c>
+      <c r="H24">
+        <v>-0.03382122324858498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03829944550295967</v>
+        <v>-0.02243883951147596</v>
       </c>
       <c r="C25">
-        <v>-0.006209318558071561</v>
+        <v>0.05149424298035798</v>
       </c>
       <c r="D25">
-        <v>0.03197889242564748</v>
+        <v>-0.007891330145003895</v>
       </c>
       <c r="E25">
-        <v>0.008196386830119484</v>
+        <v>0.02284914873081091</v>
       </c>
       <c r="F25">
-        <v>0.03845370135670917</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.009349898227707872</v>
+      </c>
+      <c r="G25">
+        <v>0.01701571997139313</v>
+      </c>
+      <c r="H25">
+        <v>-0.03114504347594012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01598602089078123</v>
+        <v>-0.002248227081701616</v>
       </c>
       <c r="C26">
-        <v>0.007779695010272617</v>
+        <v>0.004422249103358526</v>
       </c>
       <c r="D26">
-        <v>0.0146854969612471</v>
+        <v>-0.02304704915487066</v>
       </c>
       <c r="E26">
-        <v>-0.02757419334181093</v>
+        <v>0.003396982939054043</v>
       </c>
       <c r="F26">
-        <v>0.03681576774474746</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.02120368811880149</v>
+      </c>
+      <c r="G26">
+        <v>-0.002042451456846458</v>
+      </c>
+      <c r="H26">
+        <v>-0.01236654891005676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.01401321061279485</v>
+        <v>-0.004758163769794854</v>
       </c>
       <c r="C27">
-        <v>0.004960287073530482</v>
+        <v>0.002642229256150657</v>
       </c>
       <c r="D27">
-        <v>-0.007426058321472652</v>
+        <v>0.001215307981112867</v>
       </c>
       <c r="E27">
-        <v>0.01325660381567401</v>
+        <v>0.001156702733167709</v>
       </c>
       <c r="F27">
-        <v>0.01867590090182412</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.01052736359529272</v>
+      </c>
+      <c r="G27">
+        <v>0.005664369111910921</v>
+      </c>
+      <c r="H27">
+        <v>0.004707304145598992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.08629215854513125</v>
+        <v>-0.17976767968233</v>
       </c>
       <c r="C28">
-        <v>-0.014161935338394</v>
+        <v>-0.1896781404663118</v>
       </c>
       <c r="D28">
-        <v>-0.214951656218016</v>
+        <v>0.0151106414049974</v>
       </c>
       <c r="E28">
-        <v>-0.100418782367882</v>
+        <v>-0.02626814550062881</v>
       </c>
       <c r="F28">
-        <v>0.006817990984592315</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.046229039242139</v>
+      </c>
+      <c r="G28">
+        <v>-0.02646580909028658</v>
+      </c>
+      <c r="H28">
+        <v>0.002271081819362346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02328676264013815</v>
+        <v>-0.008817100298202906</v>
       </c>
       <c r="C29">
-        <v>0.0113562838863853</v>
+        <v>0.01969777780156838</v>
       </c>
       <c r="D29">
-        <v>0.009168669863579258</v>
+        <v>-0.00586590581170457</v>
       </c>
       <c r="E29">
-        <v>0.003030286631415836</v>
+        <v>0.008618713587415195</v>
       </c>
       <c r="F29">
-        <v>0.04077959544605873</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.02649016305576537</v>
+      </c>
+      <c r="G29">
+        <v>0.009231794117345163</v>
+      </c>
+      <c r="H29">
+        <v>-0.00239057195194744</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04534369717888048</v>
+        <v>-0.02407113027720071</v>
       </c>
       <c r="C30">
-        <v>-0.05310277774641633</v>
+        <v>0.08684499004391667</v>
       </c>
       <c r="D30">
-        <v>0.05871301891218302</v>
+        <v>-0.02305192899859101</v>
       </c>
       <c r="E30">
-        <v>-0.008661124892149187</v>
+        <v>0.002162966360667906</v>
       </c>
       <c r="F30">
-        <v>0.08179229937458272</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.02491889027506579</v>
+      </c>
+      <c r="G30">
+        <v>0.03711845268905815</v>
+      </c>
+      <c r="H30">
+        <v>-0.05611273997849763</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05093962873093875</v>
+        <v>-0.03104873871038947</v>
       </c>
       <c r="C31">
-        <v>0.005297588427361752</v>
+        <v>0.02805143725077318</v>
       </c>
       <c r="D31">
-        <v>0.01215698706414944</v>
+        <v>-0.0007742804589244481</v>
       </c>
       <c r="E31">
-        <v>0.01282486286937594</v>
+        <v>0.01240902594992475</v>
       </c>
       <c r="F31">
-        <v>0.02765187569514257</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02534119082890095</v>
+      </c>
+      <c r="G31">
+        <v>-0.008503254819513181</v>
+      </c>
+      <c r="H31">
+        <v>0.01053496978734794</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01175828575757423</v>
+        <v>-0.00503242324029423</v>
       </c>
       <c r="C32">
-        <v>0.03234431595431497</v>
+        <v>0.01591324593534066</v>
       </c>
       <c r="D32">
-        <v>0.02994385370568715</v>
+        <v>0.008280329561703046</v>
       </c>
       <c r="E32">
-        <v>0.01266455553138408</v>
+        <v>-0.0007017661455572102</v>
       </c>
       <c r="F32">
-        <v>0.05462809022603354</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.03533650946721591</v>
+      </c>
+      <c r="G32">
+        <v>0.05863578967465513</v>
+      </c>
+      <c r="H32">
+        <v>-0.06992457371842788</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04122729924550494</v>
+        <v>-0.01302276627330868</v>
       </c>
       <c r="C33">
-        <v>-0.02348014477755876</v>
+        <v>0.04446504988095325</v>
       </c>
       <c r="D33">
-        <v>0.03976206479677651</v>
+        <v>-0.01160719058302491</v>
       </c>
       <c r="E33">
-        <v>-0.01192182219635862</v>
+        <v>-0.006526153968568908</v>
       </c>
       <c r="F33">
-        <v>0.05319156469380655</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.007849994155906051</v>
+      </c>
+      <c r="G33">
+        <v>-0.005682099525828051</v>
+      </c>
+      <c r="H33">
+        <v>-0.0384074334867909</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03177365893310117</v>
+        <v>-0.02423590776007692</v>
       </c>
       <c r="C34">
-        <v>0.005567587799609132</v>
+        <v>0.05037079625692072</v>
       </c>
       <c r="D34">
-        <v>0.03899096899886441</v>
+        <v>0.008728142052556143</v>
       </c>
       <c r="E34">
-        <v>0.02564961670367196</v>
+        <v>0.02669609743016689</v>
       </c>
       <c r="F34">
-        <v>0.03266339869465964</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01307167143463643</v>
+      </c>
+      <c r="G34">
+        <v>0.01544807168005535</v>
+      </c>
+      <c r="H34">
+        <v>-0.03314905287307155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.0163919001850679</v>
+        <v>-0.007586708241444439</v>
       </c>
       <c r="C36">
-        <v>0.008620250653716998</v>
+        <v>0.002534071302663739</v>
       </c>
       <c r="D36">
-        <v>0.001325511509743287</v>
+        <v>-0.01009360929041318</v>
       </c>
       <c r="E36">
-        <v>-0.004374268085569737</v>
+        <v>0.002812363112474924</v>
       </c>
       <c r="F36">
-        <v>0.02574420117256781</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01765862673253192</v>
+      </c>
+      <c r="G36">
+        <v>-0.002400260596428843</v>
+      </c>
+      <c r="H36">
+        <v>-0.007919598278604383</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02120376598901733</v>
+        <v>-0.02612568445794806</v>
       </c>
       <c r="C38">
-        <v>-0.001435149585162545</v>
+        <v>0.0192434220182073</v>
       </c>
       <c r="D38">
-        <v>-0.003052378309514139</v>
+        <v>0.01072299606675173</v>
       </c>
       <c r="E38">
-        <v>-0.03154731827626128</v>
+        <v>0.007841827452665703</v>
       </c>
       <c r="F38">
-        <v>0.03683139869758387</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01435340377656515</v>
+      </c>
+      <c r="G38">
+        <v>0.006966075582934352</v>
+      </c>
+      <c r="H38">
+        <v>-0.01623748050212846</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02620693349092214</v>
+        <v>0.0009080821551246718</v>
       </c>
       <c r="C39">
-        <v>0.001600522952570546</v>
+        <v>0.08348450771597721</v>
       </c>
       <c r="D39">
-        <v>0.05596445325585633</v>
+        <v>-0.009834670727458833</v>
       </c>
       <c r="E39">
-        <v>0.007563884966668805</v>
+        <v>0.011607464335152</v>
       </c>
       <c r="F39">
-        <v>0.05674617484573814</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.003582314710400099</v>
+      </c>
+      <c r="G39">
+        <v>0.01850157138819523</v>
+      </c>
+      <c r="H39">
+        <v>-0.06430773379921596</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01725383022988399</v>
+        <v>-0.01578605497152149</v>
       </c>
       <c r="C40">
-        <v>-0.03565555577731872</v>
+        <v>0.02407391996127649</v>
       </c>
       <c r="D40">
-        <v>0.02315668865451995</v>
+        <v>-0.008909766403562502</v>
       </c>
       <c r="E40">
-        <v>0.01623967953272664</v>
+        <v>0.0005806163715282789</v>
       </c>
       <c r="F40">
-        <v>0.03343226566277242</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02091915384988082</v>
+      </c>
+      <c r="G40">
+        <v>0.02097707763861041</v>
+      </c>
+      <c r="H40">
+        <v>-0.03600385556870563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.01441292075936694</v>
+        <v>-0.01232701143980556</v>
       </c>
       <c r="C41">
-        <v>0.003611385879476294</v>
+        <v>-0.009732588154260249</v>
       </c>
       <c r="D41">
-        <v>-0.009398532189792107</v>
+        <v>-0.002455511038107534</v>
       </c>
       <c r="E41">
-        <v>-0.01722366060550857</v>
+        <v>0.004632418094824559</v>
       </c>
       <c r="F41">
-        <v>0.00353149316046951</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.01307809700197661</v>
+      </c>
+      <c r="G41">
+        <v>-0.01059069920834087</v>
+      </c>
+      <c r="H41">
+        <v>-0.001775543163260705</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2958746601811545</v>
+        <v>-0.07116400025567686</v>
       </c>
       <c r="C42">
-        <v>-0.1489026926728705</v>
+        <v>0.1838218238219</v>
       </c>
       <c r="D42">
-        <v>0.3813400962852093</v>
+        <v>-0.1205199495850265</v>
       </c>
       <c r="E42">
-        <v>-0.6322626066049457</v>
+        <v>-0.1308357229399191</v>
       </c>
       <c r="F42">
-        <v>-0.5434147119389887</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1074661513070153</v>
+      </c>
+      <c r="G42">
+        <v>-0.9325101109635998</v>
+      </c>
+      <c r="H42">
+        <v>-0.1656614272064657</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01728465170191527</v>
+        <v>-0.0142639350317125</v>
       </c>
       <c r="C43">
-        <v>-0.0007590286277876855</v>
+        <v>-0.00600939819694488</v>
       </c>
       <c r="D43">
-        <v>-0.005018473318438554</v>
+        <v>-0.002937973774408119</v>
       </c>
       <c r="E43">
-        <v>-0.01552434003173917</v>
+        <v>-0.0006342371627059302</v>
       </c>
       <c r="F43">
-        <v>0.0206561792909078</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01188863346516503</v>
+      </c>
+      <c r="G43">
+        <v>-0.008234347474316599</v>
+      </c>
+      <c r="H43">
+        <v>-0.008030685359615699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02110413894018442</v>
+        <v>-0.003386132401885544</v>
       </c>
       <c r="C44">
-        <v>0.0193974507061706</v>
+        <v>0.04319685352081101</v>
       </c>
       <c r="D44">
-        <v>0.02310264536278754</v>
+        <v>-0.00497614614996317</v>
       </c>
       <c r="E44">
-        <v>-0.02520124565732011</v>
+        <v>-0.005567820108950645</v>
       </c>
       <c r="F44">
-        <v>0.07564309091916774</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.03298941509079655</v>
+      </c>
+      <c r="G44">
+        <v>0.006233727390403175</v>
+      </c>
+      <c r="H44">
+        <v>-0.04803592040401101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02093579039234073</v>
+        <v>-0.0001125112043906181</v>
       </c>
       <c r="C46">
-        <v>0.003785442441831011</v>
+        <v>0.01181476709163487</v>
       </c>
       <c r="D46">
-        <v>0.03691794724945412</v>
+        <v>-0.01091938871823967</v>
       </c>
       <c r="E46">
-        <v>0.001614280466248953</v>
+        <v>0.0005268599109019427</v>
       </c>
       <c r="F46">
-        <v>0.06809885681663168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01986052293944132</v>
+      </c>
+      <c r="G46">
+        <v>0.003244235790848558</v>
+      </c>
+      <c r="H46">
+        <v>-0.006054270320705776</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07344868197500919</v>
+        <v>-0.04915021581353698</v>
       </c>
       <c r="C47">
-        <v>-0.01452176710249537</v>
+        <v>0.06214332930737396</v>
       </c>
       <c r="D47">
-        <v>0.01203181798490807</v>
+        <v>0.008142779924860729</v>
       </c>
       <c r="E47">
-        <v>0.02678804960806907</v>
+        <v>0.01407316821705938</v>
       </c>
       <c r="F47">
-        <v>-0.004203193516478355</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.0186643605766608</v>
+      </c>
+      <c r="G47">
+        <v>-0.01308850575737424</v>
+      </c>
+      <c r="H47">
+        <v>0.04249285832823003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02438017302612415</v>
+        <v>-0.01065536890894568</v>
       </c>
       <c r="C48">
-        <v>0.002997382692677823</v>
+        <v>0.01327742800979426</v>
       </c>
       <c r="D48">
-        <v>0.009333610626827801</v>
+        <v>-0.000389732790854248</v>
       </c>
       <c r="E48">
-        <v>-0.001045876332973599</v>
+        <v>0.003840478658033122</v>
       </c>
       <c r="F48">
-        <v>0.02620726924384236</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01619523929034565</v>
+      </c>
+      <c r="G48">
+        <v>1.357164072466298e-05</v>
+      </c>
+      <c r="H48">
+        <v>-0.008537897530904186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08502822059511922</v>
+        <v>-0.05605499268052435</v>
       </c>
       <c r="C50">
-        <v>0.01252505504673738</v>
+        <v>0.05914305656405502</v>
       </c>
       <c r="D50">
-        <v>0.03336058348479445</v>
+        <v>0.007039677791865161</v>
       </c>
       <c r="E50">
-        <v>0.02243826956863534</v>
+        <v>0.01548697493724816</v>
       </c>
       <c r="F50">
-        <v>0.02256513838650214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.04733086984737539</v>
+      </c>
+      <c r="G50">
+        <v>-0.01092376322763051</v>
+      </c>
+      <c r="H50">
+        <v>0.03241163627944474</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01846000927448481</v>
+        <v>-0.007480939808755125</v>
       </c>
       <c r="C51">
-        <v>0.0117964819074567</v>
+        <v>0.01529558342192225</v>
       </c>
       <c r="D51">
-        <v>-0.009980043169405931</v>
+        <v>-0.006339184348117438</v>
       </c>
       <c r="E51">
-        <v>-0.02972642445594975</v>
+        <v>0.00852893963613245</v>
       </c>
       <c r="F51">
-        <v>0.07866187573684473</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.02938641907775032</v>
+      </c>
+      <c r="G51">
+        <v>0.005595747629678408</v>
+      </c>
+      <c r="H51">
+        <v>-0.03408125793650736</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1023709212223169</v>
+        <v>-0.06936214742382711</v>
       </c>
       <c r="C53">
-        <v>-0.01886552988967599</v>
+        <v>0.09305658640266803</v>
       </c>
       <c r="D53">
-        <v>0.03224590970998396</v>
+        <v>0.0095108037024371</v>
       </c>
       <c r="E53">
-        <v>0.06967418947153027</v>
+        <v>0.03724996740721073</v>
       </c>
       <c r="F53">
-        <v>-0.01080585456764125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.01298247137240844</v>
+      </c>
+      <c r="G53">
+        <v>-0.0112807918014832</v>
+      </c>
+      <c r="H53">
+        <v>0.04941502101298807</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02668913192002848</v>
+        <v>-0.02006484638237505</v>
       </c>
       <c r="C54">
-        <v>0.01054935665740939</v>
+        <v>-0.0003766842344256572</v>
       </c>
       <c r="D54">
-        <v>-0.00727192935127488</v>
+        <v>0.005550956783294713</v>
       </c>
       <c r="E54">
-        <v>0.005807998551392881</v>
+        <v>-0.001122751929748717</v>
       </c>
       <c r="F54">
-        <v>0.02918300664560055</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02845738272253635</v>
+      </c>
+      <c r="G54">
+        <v>0.004468936469644334</v>
+      </c>
+      <c r="H54">
+        <v>0.0004298857069594322</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08465402460299193</v>
+        <v>-0.05025794972280357</v>
       </c>
       <c r="C55">
-        <v>-0.01837516431954809</v>
+        <v>0.08500453626125744</v>
       </c>
       <c r="D55">
-        <v>0.05586786306107719</v>
+        <v>0.007412561195796283</v>
       </c>
       <c r="E55">
-        <v>0.04326446954702469</v>
+        <v>0.02712500150559094</v>
       </c>
       <c r="F55">
-        <v>-0.01647239053867975</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.007524761797448426</v>
+      </c>
+      <c r="G55">
+        <v>-0.0169268401072128</v>
+      </c>
+      <c r="H55">
+        <v>0.0444668182408437</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1349995505379113</v>
+        <v>-0.1061313990588372</v>
       </c>
       <c r="C56">
-        <v>-0.03929930107483272</v>
+        <v>0.1285864627157387</v>
       </c>
       <c r="D56">
-        <v>0.03657931952422626</v>
+        <v>0.01981767558525042</v>
       </c>
       <c r="E56">
-        <v>0.1002909658774903</v>
+        <v>0.04474247119758112</v>
       </c>
       <c r="F56">
-        <v>-0.04089686561149845</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.008811950502255472</v>
+      </c>
+      <c r="G56">
+        <v>-0.006373126897093698</v>
+      </c>
+      <c r="H56">
+        <v>0.08796228072180434</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04304018451150749</v>
+        <v>-0.01879891646311746</v>
       </c>
       <c r="C57">
-        <v>-0.00799944297493827</v>
+        <v>0.02686679747473006</v>
       </c>
       <c r="D57">
-        <v>0.02075076335586318</v>
+        <v>-0.02292799249364903</v>
       </c>
       <c r="E57">
-        <v>-0.04418946402262711</v>
+        <v>-0.02902346774808132</v>
       </c>
       <c r="F57">
-        <v>0.04264534751823388</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02483606320883535</v>
+      </c>
+      <c r="G57">
+        <v>0.0143527806835663</v>
+      </c>
+      <c r="H57">
+        <v>-0.05111796853783928</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.180327956411872</v>
+        <v>-0.06546595993730049</v>
       </c>
       <c r="C58">
-        <v>-0.1614014114661832</v>
+        <v>0.2045492634305447</v>
       </c>
       <c r="D58">
-        <v>0.2137076885470831</v>
+        <v>-0.01339835684121253</v>
       </c>
       <c r="E58">
-        <v>-0.2567548268004137</v>
+        <v>-0.9429894150311371</v>
       </c>
       <c r="F58">
-        <v>0.5843469165700497</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.08545616970610531</v>
+      </c>
+      <c r="G58">
+        <v>0.1527923841680487</v>
+      </c>
+      <c r="H58">
+        <v>0.1044840821822913</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.07722145092987902</v>
+        <v>-0.2026525883977693</v>
       </c>
       <c r="C59">
-        <v>-0.03895363547863594</v>
+        <v>-0.1734934765445285</v>
       </c>
       <c r="D59">
-        <v>-0.1881784350289625</v>
+        <v>0.0235524317377667</v>
       </c>
       <c r="E59">
-        <v>-0.07480832333653459</v>
+        <v>-0.02448318929232132</v>
       </c>
       <c r="F59">
-        <v>0.04810775729022681</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01441285216056641</v>
+      </c>
+      <c r="G59">
+        <v>0.00128741009231659</v>
+      </c>
+      <c r="H59">
+        <v>-0.01336956621362737</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1708018227833474</v>
+        <v>-0.2469334472151443</v>
       </c>
       <c r="C60">
-        <v>-0.08257415001406249</v>
+        <v>0.09899086042617058</v>
       </c>
       <c r="D60">
-        <v>-0.008482922968660116</v>
+        <v>0.01013663829694766</v>
       </c>
       <c r="E60">
-        <v>-0.05380029788459135</v>
+        <v>0.04065484296171991</v>
       </c>
       <c r="F60">
-        <v>0.1506332789576744</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1120374772641362</v>
+      </c>
+      <c r="G60">
+        <v>0.1458097357421311</v>
+      </c>
+      <c r="H60">
+        <v>-0.3917672549061318</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02903848149081092</v>
+        <v>-0.009458319895516652</v>
       </c>
       <c r="C61">
-        <v>-0.002434111484393368</v>
+        <v>0.06421187782268815</v>
       </c>
       <c r="D61">
-        <v>0.04230188894257843</v>
+        <v>-0.002722768841983243</v>
       </c>
       <c r="E61">
-        <v>0.005657831783068268</v>
+        <v>0.01181396489468677</v>
       </c>
       <c r="F61">
-        <v>0.02678655260760193</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.007255522108419076</v>
+      </c>
+      <c r="G61">
+        <v>0.02081576198971732</v>
+      </c>
+      <c r="H61">
+        <v>-0.04515503031780778</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01883402662582539</v>
+        <v>-0.00576886898837652</v>
       </c>
       <c r="C63">
-        <v>0.00635901444281742</v>
+        <v>0.02284989602366764</v>
       </c>
       <c r="D63">
-        <v>0.01859745709445564</v>
+        <v>-0.006530124011973903</v>
       </c>
       <c r="E63">
-        <v>0.005583522884566972</v>
+        <v>0.01757694634874469</v>
       </c>
       <c r="F63">
-        <v>0.01170033712537132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.01959000445413253</v>
+      </c>
+      <c r="G63">
+        <v>0.005470835935870492</v>
+      </c>
+      <c r="H63">
+        <v>-0.00170083166241742</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04236111508467968</v>
+        <v>-0.03519197795745737</v>
       </c>
       <c r="C64">
-        <v>-0.001130218628629983</v>
+        <v>0.04388742073393811</v>
       </c>
       <c r="D64">
-        <v>0.02458437942226359</v>
+        <v>-0.001371639791369932</v>
       </c>
       <c r="E64">
-        <v>0.00601454766124405</v>
+        <v>0.02311832125477894</v>
       </c>
       <c r="F64">
-        <v>0.02801684680759374</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.007193158977113165</v>
+      </c>
+      <c r="G64">
+        <v>-0.005431218812167519</v>
+      </c>
+      <c r="H64">
+        <v>-0.02666398322658647</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.04856797431938389</v>
+        <v>-0.04701729633728892</v>
       </c>
       <c r="C65">
-        <v>-0.005735748898699904</v>
+        <v>0.08620096862762516</v>
       </c>
       <c r="D65">
-        <v>0.03641080153643168</v>
+        <v>-0.01152615296851117</v>
       </c>
       <c r="E65">
-        <v>0.0269418980563799</v>
+        <v>0.0294911613465625</v>
       </c>
       <c r="F65">
-        <v>0.03906543187468715</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.01051696414054127</v>
+      </c>
+      <c r="G65">
+        <v>0.04608537072430818</v>
+      </c>
+      <c r="H65">
+        <v>-0.04957746376330099</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04487106181218862</v>
+        <v>-0.0101375885708212</v>
       </c>
       <c r="C66">
-        <v>-0.01824544650228932</v>
+        <v>0.1182786494026303</v>
       </c>
       <c r="D66">
-        <v>0.06092549938927674</v>
+        <v>-0.007112387787714208</v>
       </c>
       <c r="E66">
-        <v>0.04451815049475222</v>
+        <v>0.01813874495851347</v>
       </c>
       <c r="F66">
-        <v>0.0612911817133982</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.009834642698985298</v>
+      </c>
+      <c r="G66">
+        <v>0.04567348637520894</v>
+      </c>
+      <c r="H66">
+        <v>-0.06626759866423215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03530745805675972</v>
+        <v>-0.04930703542639658</v>
       </c>
       <c r="C67">
-        <v>-0.006888357038396702</v>
+        <v>0.02932212192550018</v>
       </c>
       <c r="D67">
-        <v>-0.01104812275771991</v>
+        <v>0.01039498379183274</v>
       </c>
       <c r="E67">
-        <v>-0.02058513175357096</v>
+        <v>0.01505350134249827</v>
       </c>
       <c r="F67">
-        <v>0.02550436130113574</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01383820600734307</v>
+      </c>
+      <c r="G67">
+        <v>0.01375227481768532</v>
+      </c>
+      <c r="H67">
+        <v>-0.01404227923349568</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0855650309279829</v>
+        <v>-0.1996385753862917</v>
       </c>
       <c r="C68">
-        <v>-0.03522008457572963</v>
+        <v>-0.2134682801319123</v>
       </c>
       <c r="D68">
-        <v>-0.2092919613629158</v>
+        <v>0.003860362890997422</v>
       </c>
       <c r="E68">
-        <v>-0.08984283602180786</v>
+        <v>-0.03852939258732356</v>
       </c>
       <c r="F68">
-        <v>0.01870587459533555</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.02668454154792773</v>
+      </c>
+      <c r="G68">
+        <v>-0.03817312080570932</v>
+      </c>
+      <c r="H68">
+        <v>0.02087861888766402</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06312240862135651</v>
+        <v>-0.05168545990286659</v>
       </c>
       <c r="C69">
-        <v>-0.0151935142671214</v>
+        <v>0.06024857981157374</v>
       </c>
       <c r="D69">
-        <v>0.0195875168146278</v>
+        <v>0.01284124978148746</v>
       </c>
       <c r="E69">
-        <v>0.03273027045609835</v>
+        <v>0.02960135560184711</v>
       </c>
       <c r="F69">
-        <v>0.01146350699937487</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.007508975966412907</v>
+      </c>
+      <c r="G69">
+        <v>0.003031084015198733</v>
+      </c>
+      <c r="H69">
+        <v>0.01456539150732102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08364177737886377</v>
+        <v>-0.1799323951300396</v>
       </c>
       <c r="C71">
-        <v>-0.02034748863801571</v>
+        <v>-0.1730021269435509</v>
       </c>
       <c r="D71">
-        <v>-0.2018947973495973</v>
+        <v>0.01065897750753218</v>
       </c>
       <c r="E71">
-        <v>-0.1273366196658038</v>
+        <v>-0.04535414275516886</v>
       </c>
       <c r="F71">
-        <v>-0.007628265921496006</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.04054992802975368</v>
+      </c>
+      <c r="G71">
+        <v>-0.04459943140322548</v>
+      </c>
+      <c r="H71">
+        <v>0.006210094257849379</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1001394035713562</v>
+        <v>-0.05497838596640384</v>
       </c>
       <c r="C72">
-        <v>-0.03095934282266011</v>
+        <v>0.09786354979000601</v>
       </c>
       <c r="D72">
-        <v>0.08366413569106408</v>
+        <v>0.01469153461351846</v>
       </c>
       <c r="E72">
-        <v>0.05837159611458121</v>
+        <v>0.03778521234967183</v>
       </c>
       <c r="F72">
-        <v>0.1341188810733133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.02134436589770175</v>
+      </c>
+      <c r="G72">
+        <v>0.0545446239214195</v>
+      </c>
+      <c r="H72">
+        <v>-0.05892037813383419</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2073450458570743</v>
+        <v>-0.3233180117995473</v>
       </c>
       <c r="C73">
-        <v>-0.1376398253662933</v>
+        <v>0.1637303663827387</v>
       </c>
       <c r="D73">
-        <v>0.01867323443259671</v>
+        <v>0.008838038424882304</v>
       </c>
       <c r="E73">
-        <v>-0.1017828368863501</v>
+        <v>0.03760384465483278</v>
       </c>
       <c r="F73">
-        <v>0.1491190295095225</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1624681697524112</v>
+      </c>
+      <c r="G73">
+        <v>0.1599156332902028</v>
+      </c>
+      <c r="H73">
+        <v>-0.4825986724612862</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1339208382794379</v>
+        <v>-0.09705028070505439</v>
       </c>
       <c r="C74">
-        <v>-0.03460486361833789</v>
+        <v>0.135364269517211</v>
       </c>
       <c r="D74">
-        <v>0.03463407361654919</v>
+        <v>0.0183817613207041</v>
       </c>
       <c r="E74">
-        <v>0.08467931774876168</v>
+        <v>0.04886141229454527</v>
       </c>
       <c r="F74">
-        <v>-0.04314769611219803</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.01132472717074487</v>
+      </c>
+      <c r="G74">
+        <v>-0.006996401540134125</v>
+      </c>
+      <c r="H74">
+        <v>0.06467799287052683</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2294865783149145</v>
+        <v>-0.2120894818545851</v>
       </c>
       <c r="C75">
-        <v>-0.07612036248794604</v>
+        <v>0.2200295448320621</v>
       </c>
       <c r="D75">
-        <v>0.02956481773384296</v>
+        <v>0.0417127694505013</v>
       </c>
       <c r="E75">
-        <v>0.2019408461377058</v>
+        <v>0.06959074393085586</v>
       </c>
       <c r="F75">
-        <v>-0.03882589955164274</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.02007826157690136</v>
+      </c>
+      <c r="G75">
+        <v>0.005924658966895691</v>
+      </c>
+      <c r="H75">
+        <v>0.1901309697581616</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.262981619390204</v>
+        <v>-0.1391522209569659</v>
       </c>
       <c r="C76">
-        <v>-0.06215799604521344</v>
+        <v>0.1874027142365721</v>
       </c>
       <c r="D76">
-        <v>0.04653435350568454</v>
+        <v>0.03327257838771604</v>
       </c>
       <c r="E76">
-        <v>0.2585425533522344</v>
+        <v>0.08592927801482529</v>
       </c>
       <c r="F76">
-        <v>-0.09878713629714202</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.01186872335650443</v>
+      </c>
+      <c r="G76">
+        <v>-0.006288449392349728</v>
+      </c>
+      <c r="H76">
+        <v>0.1547621608820976</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09573157480952718</v>
+        <v>-0.04451044011821085</v>
       </c>
       <c r="C77">
-        <v>-0.03488284527734578</v>
+        <v>0.08260757410458609</v>
       </c>
       <c r="D77">
-        <v>0.08198655031630316</v>
+        <v>-0.009760848561246984</v>
       </c>
       <c r="E77">
-        <v>-0.07158667435169827</v>
+        <v>-0.02496811346987477</v>
       </c>
       <c r="F77">
-        <v>0.05464334797650079</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01605927813500261</v>
+      </c>
+      <c r="G77">
+        <v>-0.02296687002256256</v>
+      </c>
+      <c r="H77">
+        <v>-0.004844685849701831</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05458011495725544</v>
+        <v>-0.02606324634032399</v>
       </c>
       <c r="C78">
-        <v>0.001908856374768536</v>
+        <v>0.07351971115707082</v>
       </c>
       <c r="D78">
-        <v>0.09045004664704849</v>
+        <v>-0.003121645973499774</v>
       </c>
       <c r="E78">
-        <v>0.006754719604144767</v>
+        <v>-0.0004276966931569794</v>
       </c>
       <c r="F78">
-        <v>0.09701371002041062</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.01264572326366801</v>
+      </c>
+      <c r="G78">
+        <v>0.0282542122604735</v>
+      </c>
+      <c r="H78">
+        <v>-0.06883682763910481</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.3744256649561251</v>
+        <v>-0.07597096370408274</v>
       </c>
       <c r="C80">
-        <v>0.905728143830534</v>
+        <v>0.1151123326910619</v>
       </c>
       <c r="D80">
-        <v>-0.01105506269362094</v>
+        <v>-0.007233072089817699</v>
       </c>
       <c r="E80">
-        <v>-0.07668440863418065</v>
+        <v>0.1065499784984524</v>
       </c>
       <c r="F80">
-        <v>0.02174741309666711</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.939214132131324</v>
+      </c>
+      <c r="G80">
+        <v>-0.06607976322471147</v>
+      </c>
+      <c r="H80">
+        <v>-0.1178404938685031</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.18454300050607</v>
+        <v>-0.1270364117064212</v>
       </c>
       <c r="C81">
-        <v>-0.0530725113707497</v>
+        <v>0.1375383466187769</v>
       </c>
       <c r="D81">
-        <v>0.006171810266512468</v>
+        <v>0.0243432911716988</v>
       </c>
       <c r="E81">
-        <v>0.1555154432131167</v>
+        <v>0.03990972284943291</v>
       </c>
       <c r="F81">
-        <v>-0.02597889926535865</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.007109271013762245</v>
+      </c>
+      <c r="G81">
+        <v>-0.0004248819112525615</v>
+      </c>
+      <c r="H81">
+        <v>0.114150915771077</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.005507426429560768</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.002742896793750664</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.0008909750408839746</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01280397798495904</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.002317743201692484</v>
+      </c>
+      <c r="G82">
+        <v>0.0007352206176184404</v>
+      </c>
+      <c r="H82">
+        <v>-0.0007431072755459574</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03742747287815319</v>
+        <v>-0.02038413039382463</v>
       </c>
       <c r="C83">
-        <v>-0.0007852511349058589</v>
+        <v>0.02335241380740951</v>
       </c>
       <c r="D83">
-        <v>0.02070203002603094</v>
+        <v>-0.003848521731567478</v>
       </c>
       <c r="E83">
-        <v>-0.03202261880238259</v>
+        <v>-0.01924244056427736</v>
       </c>
       <c r="F83">
-        <v>0.04438986822514178</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.02556726289126932</v>
+      </c>
+      <c r="G83">
+        <v>0.01109425169892323</v>
+      </c>
+      <c r="H83">
+        <v>-0.03878712761354892</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2387024109658926</v>
+        <v>-0.206660762272079</v>
       </c>
       <c r="C85">
-        <v>-0.08058748522793974</v>
+        <v>0.2250707629986106</v>
       </c>
       <c r="D85">
-        <v>0.0500563846097065</v>
+        <v>0.0299912695551793</v>
       </c>
       <c r="E85">
-        <v>0.2261858744717056</v>
+        <v>0.09795548696380926</v>
       </c>
       <c r="F85">
-        <v>-0.06669276583900928</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.05386745826464114</v>
+      </c>
+      <c r="G85">
+        <v>0.006128695676191712</v>
+      </c>
+      <c r="H85">
+        <v>0.1636703826054556</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01098504296315861</v>
+        <v>-0.007420343385332437</v>
       </c>
       <c r="C86">
-        <v>0.003784534835362179</v>
+        <v>0.03396535561404763</v>
       </c>
       <c r="D86">
-        <v>0.04371737823026345</v>
+        <v>-0.007136059788626468</v>
       </c>
       <c r="E86">
-        <v>-0.004605091180675756</v>
+        <v>-0.003106153761783669</v>
       </c>
       <c r="F86">
-        <v>0.08555790240499839</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02967451003041853</v>
+      </c>
+      <c r="G86">
+        <v>-0.001021096954614259</v>
+      </c>
+      <c r="H86">
+        <v>-0.04611717468408651</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02763989689152629</v>
+        <v>-0.0008058726004678451</v>
       </c>
       <c r="C87">
-        <v>-0.003935603561365366</v>
+        <v>0.03903359355219113</v>
       </c>
       <c r="D87">
-        <v>0.04162037518928471</v>
+        <v>-0.009357181295827972</v>
       </c>
       <c r="E87">
-        <v>-0.02292197702353423</v>
+        <v>-0.03589679904343573</v>
       </c>
       <c r="F87">
-        <v>0.09076463057108806</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.02158774662878322</v>
+      </c>
+      <c r="G87">
+        <v>0.0233141797573412</v>
+      </c>
+      <c r="H87">
+        <v>-0.06946683410020224</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.03600222541934986</v>
+        <v>-0.04332594940569513</v>
       </c>
       <c r="C88">
-        <v>-0.0004980645181557403</v>
+        <v>0.02331759594205571</v>
       </c>
       <c r="D88">
-        <v>-0.01081923659159912</v>
+        <v>-0.01785220090039658</v>
       </c>
       <c r="E88">
-        <v>0.008583015217028761</v>
+        <v>0.007405091058750455</v>
       </c>
       <c r="F88">
-        <v>-0.001747533717321586</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.02218679083122939</v>
+      </c>
+      <c r="G88">
+        <v>0.008609595107215366</v>
+      </c>
+      <c r="H88">
+        <v>0.01407267453584663</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1375346326464943</v>
+        <v>-0.3088025894344419</v>
       </c>
       <c r="C89">
-        <v>-0.07375431704198049</v>
+        <v>-0.3019649504399921</v>
       </c>
       <c r="D89">
-        <v>-0.3613955801868424</v>
+        <v>0.01711557488382327</v>
       </c>
       <c r="E89">
-        <v>-0.09897790226593547</v>
+        <v>-0.02628591641323099</v>
       </c>
       <c r="F89">
-        <v>0.03760515152436429</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.01473862134250153</v>
+      </c>
+      <c r="G89">
+        <v>-0.02827733402839687</v>
+      </c>
+      <c r="H89">
+        <v>0.02772679927852447</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.0900532990474332</v>
+        <v>-0.2550193131455715</v>
       </c>
       <c r="C90">
-        <v>-0.05449771901526909</v>
+        <v>-0.2710257397376183</v>
       </c>
       <c r="D90">
-        <v>-0.3246370044224334</v>
+        <v>0.01617726894901705</v>
       </c>
       <c r="E90">
-        <v>-0.1074564743638164</v>
+        <v>-0.04104524959902112</v>
       </c>
       <c r="F90">
-        <v>-0.02336583966794228</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01248486772001669</v>
+      </c>
+      <c r="G90">
+        <v>-0.05174056806278314</v>
+      </c>
+      <c r="H90">
+        <v>0.05820692274063419</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2765744003875934</v>
+        <v>-0.1864683472699924</v>
       </c>
       <c r="C91">
-        <v>-0.1032094701025917</v>
+        <v>0.1873857515972299</v>
       </c>
       <c r="D91">
-        <v>0.06063408779830966</v>
+        <v>0.03672064108096981</v>
       </c>
       <c r="E91">
-        <v>0.2304303964505577</v>
+        <v>0.07448560990127608</v>
       </c>
       <c r="F91">
-        <v>-0.1525807366469777</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.01972003922806118</v>
+      </c>
+      <c r="G91">
+        <v>-0.03149379062699025</v>
+      </c>
+      <c r="H91">
+        <v>0.1907158371081829</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1832284833277681</v>
+        <v>-0.2764534191553522</v>
       </c>
       <c r="C92">
-        <v>-0.08228486126107992</v>
+        <v>-0.1947658588465953</v>
       </c>
       <c r="D92">
-        <v>-0.3961117634264343</v>
+        <v>0.0607951421561932</v>
       </c>
       <c r="E92">
-        <v>-0.007959945981772005</v>
+        <v>-0.03613717438701674</v>
       </c>
       <c r="F92">
-        <v>-0.0645828932895222</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.05017736666080798</v>
+      </c>
+      <c r="G92">
+        <v>-0.02365533376543899</v>
+      </c>
+      <c r="H92">
+        <v>0.1360330271165917</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1280644181384474</v>
+        <v>-0.2955963479894158</v>
       </c>
       <c r="C93">
-        <v>-0.08801253569088535</v>
+        <v>-0.2560718883003226</v>
       </c>
       <c r="D93">
-        <v>-0.3786179837912365</v>
+        <v>0.02618903518359615</v>
       </c>
       <c r="E93">
-        <v>-0.1613684333133255</v>
+        <v>-0.04590547057704543</v>
       </c>
       <c r="F93">
-        <v>-0.05035114997891614</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.001706543445443044</v>
+      </c>
+      <c r="G93">
+        <v>-0.0447715471211892</v>
+      </c>
+      <c r="H93">
+        <v>0.0008567010786439567</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2842051283406897</v>
+        <v>-0.2365480497687749</v>
       </c>
       <c r="C94">
-        <v>-0.1272443050992709</v>
+        <v>0.232572870897833</v>
       </c>
       <c r="D94">
-        <v>0.005463434685387663</v>
+        <v>0.02777967366963073</v>
       </c>
       <c r="E94">
-        <v>0.29565641987542</v>
+        <v>0.09572796061369189</v>
       </c>
       <c r="F94">
-        <v>-0.02868541512692268</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.08381396231670392</v>
+      </c>
+      <c r="G94">
+        <v>0.04604212560428239</v>
+      </c>
+      <c r="H94">
+        <v>0.4451095620348371</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.06314517698472619</v>
+        <v>-0.05105574616890604</v>
       </c>
       <c r="C95">
-        <v>-0.06833119588520044</v>
+        <v>0.09797021904282173</v>
       </c>
       <c r="D95">
-        <v>0.0261771194699776</v>
+        <v>0.01417181763881008</v>
       </c>
       <c r="E95">
-        <v>0.01245966842023219</v>
+        <v>-0.02594718687755388</v>
       </c>
       <c r="F95">
-        <v>0.0344747987273172</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.06029967584813214</v>
+      </c>
+      <c r="G95">
+        <v>0.00529658307164388</v>
+      </c>
+      <c r="H95">
+        <v>-0.05663943639186638</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1719886504412773</v>
+        <v>-0.1907039298803725</v>
       </c>
       <c r="C98">
-        <v>-0.08868790320589715</v>
+        <v>0.07118930304689557</v>
       </c>
       <c r="D98">
-        <v>-0.02761872148968348</v>
+        <v>0.03094282506403438</v>
       </c>
       <c r="E98">
-        <v>-0.1099972279309169</v>
+        <v>-0.02057228054742211</v>
       </c>
       <c r="F98">
-        <v>0.1383867587386997</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.06847901722041061</v>
+      </c>
+      <c r="G98">
+        <v>0.06216006856388965</v>
+      </c>
+      <c r="H98">
+        <v>-0.3034968996782895</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.007579383851983279</v>
+        <v>-0.002612988505123275</v>
       </c>
       <c r="C101">
-        <v>0.009284705055443298</v>
+        <v>0.02076873912575393</v>
       </c>
       <c r="D101">
-        <v>0.03599853598214929</v>
+        <v>-0.006912434520032373</v>
       </c>
       <c r="E101">
-        <v>-0.03860323893066588</v>
+        <v>-0.02873008176746977</v>
       </c>
       <c r="F101">
-        <v>0.1782551410986265</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03291953210033629</v>
+      </c>
+      <c r="G101">
+        <v>0.02725149323721206</v>
+      </c>
+      <c r="H101">
+        <v>-0.0008010139613127397</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1192892698686773</v>
+        <v>-0.1047774372390784</v>
       </c>
       <c r="C102">
-        <v>-0.0377854353558453</v>
+        <v>0.1073686342415666</v>
       </c>
       <c r="D102">
-        <v>0.02106628669989224</v>
+        <v>0.007559125609828372</v>
       </c>
       <c r="E102">
-        <v>0.1124929452390205</v>
+        <v>0.05381359399724421</v>
       </c>
       <c r="F102">
-        <v>-0.06082928758118452</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.01942415567975232</v>
+      </c>
+      <c r="G102">
+        <v>0.00474789797886377</v>
+      </c>
+      <c r="H102">
+        <v>0.0706319519720232</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04112584198472095</v>
+        <v>-0.009152222353016132</v>
       </c>
       <c r="C103">
-        <v>0.009340488870525656</v>
+        <v>0.01262835586138522</v>
       </c>
       <c r="D103">
-        <v>0.01056418397818991</v>
+        <v>0.0008272954518720411</v>
       </c>
       <c r="E103">
-        <v>0.03462231145248439</v>
+        <v>0.002429723277963296</v>
       </c>
       <c r="F103">
-        <v>0.008201782023671849</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.02053530475833875</v>
+      </c>
+      <c r="G103">
+        <v>-0.001568019853914492</v>
+      </c>
+      <c r="H103">
+        <v>0.01186954185041142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.08962805715107756</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.02653514043283924</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9816605840296824</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.04169943190406035</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.004807101100354246</v>
+      </c>
+      <c r="G104">
+        <v>0.1071720942135033</v>
+      </c>
+      <c r="H104">
+        <v>0.06842865606254503</v>
       </c>
     </row>
   </sheetData>
